--- a/excels/check/2_10.xlsx
+++ b/excels/check/2_10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-15" windowWidth="13725" windowHeight="12720" activeTab="3"/>
+    <workbookView xWindow="15" yWindow="-15" windowWidth="13725" windowHeight="12720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="length change1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="179">
   <si>
     <t>maze</t>
   </si>
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N74" sqref="N74:R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1100,7 +1100,7 @@
     <col min="2" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="3.125" customWidth="1"/>
     <col min="8" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="2.375" customWidth="1"/>
+    <col min="13" max="13" width="7.625" bestFit="1" customWidth="1"/>
     <col min="14" max="18" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1138,6 +1138,9 @@
       <c r="L1" t="s">
         <v>91</v>
       </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
       <c r="N1" t="s">
         <v>92</v>
       </c>
@@ -1188,6 +1191,9 @@
       <c r="L2">
         <v>275</v>
       </c>
+      <c r="M2" t="s">
+        <v>98</v>
+      </c>
       <c r="N2">
         <v>279</v>
       </c>
@@ -1238,6 +1244,9 @@
       <c r="L3">
         <v>383</v>
       </c>
+      <c r="M3" t="s">
+        <v>99</v>
+      </c>
       <c r="N3">
         <v>181</v>
       </c>
@@ -1288,6 +1297,9 @@
       <c r="L4">
         <v>513</v>
       </c>
+      <c r="M4" t="s">
+        <v>100</v>
+      </c>
       <c r="N4">
         <v>115</v>
       </c>
@@ -1338,6 +1350,9 @@
       <c r="L5">
         <v>387</v>
       </c>
+      <c r="M5" t="s">
+        <v>101</v>
+      </c>
       <c r="N5">
         <v>629</v>
       </c>
@@ -1388,6 +1403,9 @@
       <c r="L6">
         <v>233</v>
       </c>
+      <c r="M6" t="s">
+        <v>102</v>
+      </c>
       <c r="N6">
         <v>389</v>
       </c>
@@ -1438,6 +1456,9 @@
       <c r="L7">
         <v>45350</v>
       </c>
+      <c r="M7" t="s">
+        <v>103</v>
+      </c>
       <c r="N7">
         <v>427</v>
       </c>
@@ -1488,6 +1509,9 @@
       <c r="L8">
         <v>48685</v>
       </c>
+      <c r="M8" t="s">
+        <v>104</v>
+      </c>
       <c r="N8">
         <v>47885</v>
       </c>
@@ -1538,6 +1562,9 @@
       <c r="L9">
         <v>44793</v>
       </c>
+      <c r="M9" t="s">
+        <v>105</v>
+      </c>
       <c r="N9">
         <v>49809</v>
       </c>
@@ -1588,6 +1615,9 @@
       <c r="L10">
         <v>45113</v>
       </c>
+      <c r="M10" t="s">
+        <v>106</v>
+      </c>
       <c r="N10">
         <v>491</v>
       </c>
@@ -1638,6 +1668,9 @@
       <c r="L11">
         <v>239</v>
       </c>
+      <c r="M11" t="s">
+        <v>107</v>
+      </c>
       <c r="N11">
         <v>555</v>
       </c>
@@ -1688,6 +1721,9 @@
       <c r="L12">
         <v>361</v>
       </c>
+      <c r="M12" t="s">
+        <v>108</v>
+      </c>
       <c r="N12">
         <v>201</v>
       </c>
@@ -1738,6 +1774,9 @@
       <c r="L13">
         <v>381</v>
       </c>
+      <c r="M13" t="s">
+        <v>109</v>
+      </c>
       <c r="N13">
         <v>667</v>
       </c>
@@ -1788,6 +1827,9 @@
       <c r="L14">
         <v>455</v>
       </c>
+      <c r="M14" t="s">
+        <v>110</v>
+      </c>
       <c r="N14">
         <v>369</v>
       </c>
@@ -1838,6 +1880,9 @@
       <c r="L15">
         <v>237</v>
       </c>
+      <c r="M15" t="s">
+        <v>111</v>
+      </c>
       <c r="N15">
         <v>167</v>
       </c>
@@ -1888,6 +1933,9 @@
       <c r="L16">
         <v>45625</v>
       </c>
+      <c r="M16" t="s">
+        <v>112</v>
+      </c>
       <c r="N16">
         <v>241</v>
       </c>
@@ -1938,6 +1986,9 @@
       <c r="L17">
         <v>47265</v>
       </c>
+      <c r="M17" t="s">
+        <v>113</v>
+      </c>
       <c r="N17">
         <v>51</v>
       </c>
@@ -1988,6 +2039,9 @@
       <c r="L18">
         <v>44418</v>
       </c>
+      <c r="M18" t="s">
+        <v>114</v>
+      </c>
       <c r="N18">
         <v>183</v>
       </c>
@@ -2038,6 +2092,9 @@
       <c r="L19">
         <v>45540</v>
       </c>
+      <c r="M19" t="s">
+        <v>115</v>
+      </c>
       <c r="N19">
         <v>145</v>
       </c>
@@ -2088,6 +2145,9 @@
       <c r="L20">
         <v>289</v>
       </c>
+      <c r="M20" t="s">
+        <v>116</v>
+      </c>
       <c r="N20">
         <v>397</v>
       </c>
@@ -2138,6 +2198,9 @@
       <c r="L21">
         <v>367</v>
       </c>
+      <c r="M21" t="s">
+        <v>117</v>
+      </c>
       <c r="N21">
         <v>373</v>
       </c>
@@ -2188,6 +2251,9 @@
       <c r="L22">
         <v>507</v>
       </c>
+      <c r="M22" t="s">
+        <v>118</v>
+      </c>
       <c r="N22">
         <v>317</v>
       </c>
@@ -2238,6 +2304,9 @@
       <c r="L23">
         <v>407</v>
       </c>
+      <c r="M23" t="s">
+        <v>119</v>
+      </c>
       <c r="N23">
         <v>159</v>
       </c>
@@ -2288,6 +2357,9 @@
       <c r="L24">
         <v>227</v>
       </c>
+      <c r="M24" t="s">
+        <v>120</v>
+      </c>
       <c r="N24">
         <v>581</v>
       </c>
@@ -2338,6 +2410,9 @@
       <c r="L25">
         <v>46303</v>
       </c>
+      <c r="M25" t="s">
+        <v>121</v>
+      </c>
       <c r="N25">
         <v>345</v>
       </c>
@@ -2388,6 +2463,9 @@
       <c r="L26">
         <v>46420</v>
       </c>
+      <c r="M26" t="s">
+        <v>122</v>
+      </c>
       <c r="N26">
         <v>241</v>
       </c>
@@ -2438,6 +2516,9 @@
       <c r="L27">
         <v>46104</v>
       </c>
+      <c r="M27" t="s">
+        <v>123</v>
+      </c>
       <c r="N27">
         <v>103</v>
       </c>
@@ -2488,6 +2569,9 @@
       <c r="L28">
         <v>47517</v>
       </c>
+      <c r="M28" t="s">
+        <v>124</v>
+      </c>
       <c r="N28">
         <v>50495</v>
       </c>
@@ -2538,6 +2622,9 @@
       <c r="L29">
         <v>207</v>
       </c>
+      <c r="M29" t="s">
+        <v>125</v>
+      </c>
       <c r="N29">
         <v>477</v>
       </c>
@@ -2588,6 +2675,9 @@
       <c r="L30">
         <v>297</v>
       </c>
+      <c r="M30" t="s">
+        <v>126</v>
+      </c>
       <c r="N30">
         <v>815</v>
       </c>
@@ -2638,6 +2728,9 @@
       <c r="L31">
         <v>373</v>
       </c>
+      <c r="M31" t="s">
+        <v>127</v>
+      </c>
       <c r="N31">
         <v>447</v>
       </c>
@@ -2688,6 +2781,9 @@
       <c r="L32">
         <v>439</v>
       </c>
+      <c r="M32" t="s">
+        <v>128</v>
+      </c>
       <c r="N32">
         <v>243</v>
       </c>
@@ -2738,6 +2834,9 @@
       <c r="L33">
         <v>235</v>
       </c>
+      <c r="M33" t="s">
+        <v>129</v>
+      </c>
       <c r="N33">
         <v>421</v>
       </c>
@@ -2788,6 +2887,9 @@
       <c r="L34">
         <v>45824</v>
       </c>
+      <c r="M34" t="s">
+        <v>130</v>
+      </c>
       <c r="N34">
         <v>153</v>
       </c>
@@ -2838,6 +2940,9 @@
       <c r="L35">
         <v>49967</v>
       </c>
+      <c r="M35" t="s">
+        <v>131</v>
+      </c>
       <c r="N35">
         <v>46868</v>
       </c>
@@ -2888,6 +2993,9 @@
       <c r="L36">
         <v>48282</v>
       </c>
+      <c r="M36" t="s">
+        <v>132</v>
+      </c>
       <c r="N36">
         <v>113</v>
       </c>
@@ -2938,6 +3046,9 @@
       <c r="L37">
         <v>47890</v>
       </c>
+      <c r="M37" t="s">
+        <v>133</v>
+      </c>
       <c r="N37">
         <v>151</v>
       </c>
@@ -2988,6 +3099,9 @@
       <c r="L38">
         <v>251</v>
       </c>
+      <c r="M38" t="s">
+        <v>134</v>
+      </c>
       <c r="N38">
         <v>673</v>
       </c>
@@ -3038,6 +3152,9 @@
       <c r="L39">
         <v>455</v>
       </c>
+      <c r="M39" t="s">
+        <v>135</v>
+      </c>
       <c r="N39">
         <v>433</v>
       </c>
@@ -3088,6 +3205,9 @@
       <c r="L40">
         <v>385</v>
       </c>
+      <c r="M40" t="s">
+        <v>136</v>
+      </c>
       <c r="N40">
         <v>811</v>
       </c>
@@ -3138,6 +3258,9 @@
       <c r="L41">
         <v>427</v>
       </c>
+      <c r="M41" t="s">
+        <v>137</v>
+      </c>
       <c r="N41">
         <v>417</v>
       </c>
@@ -3188,6 +3311,9 @@
       <c r="L42">
         <v>207</v>
       </c>
+      <c r="M42" t="s">
+        <v>138</v>
+      </c>
       <c r="N42">
         <v>253</v>
       </c>
@@ -3238,6 +3364,9 @@
       <c r="L43">
         <v>48249</v>
       </c>
+      <c r="M43" t="s">
+        <v>139</v>
+      </c>
       <c r="N43">
         <v>245</v>
       </c>
@@ -3288,6 +3417,9 @@
       <c r="L44">
         <v>48192</v>
       </c>
+      <c r="M44" t="s">
+        <v>140</v>
+      </c>
       <c r="N44">
         <v>52421</v>
       </c>
@@ -3338,6 +3470,9 @@
       <c r="L45">
         <v>47909</v>
       </c>
+      <c r="M45" t="s">
+        <v>141</v>
+      </c>
       <c r="N45">
         <v>145</v>
       </c>
@@ -3388,6 +3523,9 @@
       <c r="L46">
         <v>47334</v>
       </c>
+      <c r="M46" t="s">
+        <v>142</v>
+      </c>
       <c r="N46">
         <v>35</v>
       </c>
@@ -3438,6 +3576,9 @@
       <c r="L47">
         <v>309</v>
       </c>
+      <c r="M47" t="s">
+        <v>143</v>
+      </c>
       <c r="N47">
         <v>209</v>
       </c>
@@ -3488,6 +3629,9 @@
       <c r="L48">
         <v>331</v>
       </c>
+      <c r="M48" t="s">
+        <v>144</v>
+      </c>
       <c r="N48">
         <v>291</v>
       </c>
@@ -3538,6 +3682,9 @@
       <c r="L49">
         <v>523</v>
       </c>
+      <c r="M49" t="s">
+        <v>145</v>
+      </c>
       <c r="N49">
         <v>579</v>
       </c>
@@ -3588,6 +3735,9 @@
       <c r="L50">
         <v>387</v>
       </c>
+      <c r="M50" t="s">
+        <v>146</v>
+      </c>
       <c r="N50">
         <v>615</v>
       </c>
@@ -3638,6 +3788,9 @@
       <c r="L51">
         <v>241</v>
       </c>
+      <c r="M51" t="s">
+        <v>147</v>
+      </c>
       <c r="N51">
         <v>337</v>
       </c>
@@ -3688,6 +3841,9 @@
       <c r="L52">
         <v>47747</v>
       </c>
+      <c r="M52" t="s">
+        <v>148</v>
+      </c>
       <c r="N52">
         <v>357</v>
       </c>
@@ -3738,6 +3894,9 @@
       <c r="L53">
         <v>48200</v>
       </c>
+      <c r="M53" t="s">
+        <v>149</v>
+      </c>
       <c r="N53">
         <v>48883</v>
       </c>
@@ -3788,6 +3947,9 @@
       <c r="L54">
         <v>48132</v>
       </c>
+      <c r="M54" t="s">
+        <v>150</v>
+      </c>
       <c r="N54">
         <v>47203</v>
       </c>
@@ -3838,6 +4000,9 @@
       <c r="L55">
         <v>47049</v>
       </c>
+      <c r="M55" t="s">
+        <v>151</v>
+      </c>
       <c r="N55">
         <v>43</v>
       </c>
@@ -3888,6 +4053,9 @@
       <c r="L56">
         <v>475</v>
       </c>
+      <c r="M56" t="s">
+        <v>152</v>
+      </c>
       <c r="N56">
         <v>587</v>
       </c>
@@ -3938,6 +4106,9 @@
       <c r="L57">
         <v>367</v>
       </c>
+      <c r="M57" t="s">
+        <v>153</v>
+      </c>
       <c r="N57">
         <v>489</v>
       </c>
@@ -3988,6 +4159,9 @@
       <c r="L58">
         <v>467</v>
       </c>
+      <c r="M58" t="s">
+        <v>154</v>
+      </c>
       <c r="N58">
         <v>345</v>
       </c>
@@ -4038,6 +4212,9 @@
       <c r="L59">
         <v>263</v>
       </c>
+      <c r="M59" t="s">
+        <v>155</v>
+      </c>
       <c r="N59">
         <v>1009</v>
       </c>
@@ -4088,6 +4265,9 @@
       <c r="L60">
         <v>241</v>
       </c>
+      <c r="M60" t="s">
+        <v>156</v>
+      </c>
       <c r="N60">
         <v>273</v>
       </c>
@@ -4138,6 +4318,9 @@
       <c r="L61">
         <v>48215</v>
       </c>
+      <c r="M61" t="s">
+        <v>157</v>
+      </c>
       <c r="N61">
         <v>219</v>
       </c>
@@ -4188,6 +4371,9 @@
       <c r="L62">
         <v>47964</v>
       </c>
+      <c r="M62" t="s">
+        <v>158</v>
+      </c>
       <c r="N62">
         <v>52528</v>
       </c>
@@ -4238,6 +4424,9 @@
       <c r="L63">
         <v>48509</v>
       </c>
+      <c r="M63" t="s">
+        <v>159</v>
+      </c>
       <c r="N63">
         <v>50826</v>
       </c>
@@ -4288,6 +4477,9 @@
       <c r="L64">
         <v>47951</v>
       </c>
+      <c r="M64" t="s">
+        <v>160</v>
+      </c>
       <c r="N64">
         <v>51248</v>
       </c>
@@ -4338,6 +4530,9 @@
       <c r="L65">
         <v>215</v>
       </c>
+      <c r="M65" t="s">
+        <v>161</v>
+      </c>
       <c r="N65">
         <v>179</v>
       </c>
@@ -4388,6 +4583,9 @@
       <c r="L66">
         <v>375</v>
       </c>
+      <c r="M66" t="s">
+        <v>162</v>
+      </c>
       <c r="N66">
         <v>791</v>
       </c>
@@ -4438,6 +4636,9 @@
       <c r="L67">
         <v>495</v>
       </c>
+      <c r="M67" t="s">
+        <v>163</v>
+      </c>
       <c r="N67">
         <v>899</v>
       </c>
@@ -4488,6 +4689,9 @@
       <c r="L68">
         <v>417</v>
       </c>
+      <c r="M68" t="s">
+        <v>164</v>
+      </c>
       <c r="N68">
         <v>789</v>
       </c>
@@ -4538,6 +4742,9 @@
       <c r="L69">
         <v>231</v>
       </c>
+      <c r="M69" t="s">
+        <v>165</v>
+      </c>
       <c r="N69">
         <v>459</v>
       </c>
@@ -4588,6 +4795,9 @@
       <c r="L70">
         <v>47561</v>
       </c>
+      <c r="M70" t="s">
+        <v>166</v>
+      </c>
       <c r="N70">
         <v>125</v>
       </c>
@@ -4638,6 +4848,9 @@
       <c r="L71">
         <v>47989</v>
       </c>
+      <c r="M71" t="s">
+        <v>167</v>
+      </c>
       <c r="N71">
         <v>48587</v>
       </c>
@@ -4688,6 +4901,9 @@
       <c r="L72">
         <v>48440</v>
       </c>
+      <c r="M72" t="s">
+        <v>168</v>
+      </c>
       <c r="N72">
         <v>50483</v>
       </c>
@@ -4738,6 +4954,9 @@
       <c r="L73">
         <v>47370</v>
       </c>
+      <c r="M73" t="s">
+        <v>169</v>
+      </c>
       <c r="N73">
         <v>49069</v>
       </c>
@@ -4788,6 +5007,9 @@
       <c r="L74">
         <v>167</v>
       </c>
+      <c r="M74" t="s">
+        <v>170</v>
+      </c>
       <c r="N74">
         <v>557</v>
       </c>
@@ -4838,6 +5060,9 @@
       <c r="L75">
         <v>393</v>
       </c>
+      <c r="M75" t="s">
+        <v>171</v>
+      </c>
       <c r="N75">
         <v>223</v>
       </c>
@@ -4888,6 +5113,9 @@
       <c r="L76">
         <v>511</v>
       </c>
+      <c r="M76" t="s">
+        <v>172</v>
+      </c>
       <c r="N76">
         <v>725</v>
       </c>
@@ -4938,6 +5166,9 @@
       <c r="L77">
         <v>531</v>
       </c>
+      <c r="M77" t="s">
+        <v>173</v>
+      </c>
       <c r="N77">
         <v>557</v>
       </c>
@@ -4988,6 +5219,9 @@
       <c r="L78">
         <v>221</v>
       </c>
+      <c r="M78" t="s">
+        <v>174</v>
+      </c>
       <c r="N78">
         <v>271</v>
       </c>
@@ -5038,6 +5272,9 @@
       <c r="L79">
         <v>48708</v>
       </c>
+      <c r="M79" t="s">
+        <v>175</v>
+      </c>
       <c r="N79">
         <v>323</v>
       </c>
@@ -5088,6 +5325,9 @@
       <c r="L80">
         <v>48580</v>
       </c>
+      <c r="M80" t="s">
+        <v>176</v>
+      </c>
       <c r="N80">
         <v>48209</v>
       </c>
@@ -5138,6 +5378,9 @@
       <c r="L81">
         <v>48831</v>
       </c>
+      <c r="M81" t="s">
+        <v>177</v>
+      </c>
       <c r="N81">
         <v>47151</v>
       </c>
@@ -5188,6 +5431,9 @@
       <c r="L82">
         <v>48400</v>
       </c>
+      <c r="M82" t="s">
+        <v>178</v>
+      </c>
       <c r="N82">
         <v>47885</v>
       </c>
@@ -5247,6 +5493,9 @@
       <c r="L84">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="M84" t="s">
+        <v>97</v>
       </c>
       <c r="N84">
         <f>COUNTIF(N2:N82,21) / 81</f>
@@ -5340,8 +5589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65:R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5350,7 +5599,7 @@
     <col min="2" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="4.125" customWidth="1"/>
     <col min="8" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="3.25" customWidth="1"/>
+    <col min="13" max="13" width="7.625" bestFit="1" customWidth="1"/>
     <col min="14" max="18" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5388,6 +5637,9 @@
       <c r="L1" t="s">
         <v>91</v>
       </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
       <c r="N1" t="s">
         <v>92</v>
       </c>
@@ -5438,6 +5690,9 @@
       <c r="L2">
         <v>231</v>
       </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
       <c r="N2">
         <v>301</v>
       </c>
@@ -5488,6 +5743,9 @@
       <c r="L3">
         <v>405</v>
       </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
       <c r="N3">
         <v>165</v>
       </c>
@@ -5538,6 +5796,9 @@
       <c r="L4">
         <v>557</v>
       </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
       <c r="N4">
         <v>103</v>
       </c>
@@ -5588,6 +5849,9 @@
       <c r="L5">
         <v>393</v>
       </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
       <c r="N5">
         <v>557</v>
       </c>
@@ -5638,6 +5902,9 @@
       <c r="L6">
         <v>241</v>
       </c>
+      <c r="M6" t="s">
+        <v>5</v>
+      </c>
       <c r="N6">
         <v>67</v>
       </c>
@@ -5688,6 +5955,9 @@
       <c r="L7">
         <v>48179</v>
       </c>
+      <c r="M7" t="s">
+        <v>6</v>
+      </c>
       <c r="N7">
         <v>113</v>
       </c>
@@ -5738,6 +6008,9 @@
       <c r="L8">
         <v>52509</v>
       </c>
+      <c r="M8" t="s">
+        <v>7</v>
+      </c>
       <c r="N8">
         <v>47476</v>
       </c>
@@ -5788,6 +6061,9 @@
       <c r="L9">
         <v>49470</v>
       </c>
+      <c r="M9" t="s">
+        <v>8</v>
+      </c>
       <c r="N9">
         <v>49589</v>
       </c>
@@ -5838,6 +6114,9 @@
       <c r="L10">
         <v>48910</v>
       </c>
+      <c r="M10" t="s">
+        <v>9</v>
+      </c>
       <c r="N10">
         <v>63</v>
       </c>
@@ -5888,6 +6167,9 @@
       <c r="L11">
         <v>235</v>
       </c>
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
       <c r="N11">
         <v>357</v>
       </c>
@@ -5938,6 +6220,9 @@
       <c r="L12">
         <v>491</v>
       </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
       <c r="N12">
         <v>577</v>
       </c>
@@ -5988,6 +6273,9 @@
       <c r="L13">
         <v>489</v>
       </c>
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
       <c r="N13">
         <v>509</v>
       </c>
@@ -6038,6 +6326,9 @@
       <c r="L14">
         <v>453</v>
       </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
       <c r="N14">
         <v>131</v>
       </c>
@@ -6088,6 +6379,9 @@
       <c r="L15">
         <v>221</v>
       </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
       <c r="N15">
         <v>97</v>
       </c>
@@ -6138,6 +6432,9 @@
       <c r="L16">
         <v>48285</v>
       </c>
+      <c r="M16" t="s">
+        <v>15</v>
+      </c>
       <c r="N16">
         <v>103</v>
       </c>
@@ -6188,6 +6485,9 @@
       <c r="L17">
         <v>48028</v>
       </c>
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
       <c r="N17">
         <v>51132</v>
       </c>
@@ -6237,6 +6537,9 @@
       </c>
       <c r="L18">
         <v>48769</v>
+      </c>
+      <c r="M18" t="s">
+        <v>17</v>
       </c>
       <c r="N18">
         <v>48325</v>
@@ -6288,6 +6591,9 @@
       <c r="L19">
         <v>49055</v>
       </c>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
       <c r="N19">
         <v>48550</v>
       </c>
@@ -6338,6 +6644,9 @@
       <c r="L20">
         <v>277</v>
       </c>
+      <c r="M20" t="s">
+        <v>19</v>
+      </c>
       <c r="N20">
         <v>159</v>
       </c>
@@ -6388,6 +6697,9 @@
       <c r="L21">
         <v>405</v>
       </c>
+      <c r="M21" t="s">
+        <v>20</v>
+      </c>
       <c r="N21">
         <v>247</v>
       </c>
@@ -6438,6 +6750,9 @@
       <c r="L22">
         <v>431</v>
       </c>
+      <c r="M22" t="s">
+        <v>21</v>
+      </c>
       <c r="N22">
         <v>155</v>
       </c>
@@ -6488,6 +6803,9 @@
       <c r="L23">
         <v>407</v>
       </c>
+      <c r="M23" t="s">
+        <v>22</v>
+      </c>
       <c r="N23">
         <v>881</v>
       </c>
@@ -6538,6 +6856,9 @@
       <c r="L24">
         <v>201</v>
       </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
       <c r="N24">
         <v>173</v>
       </c>
@@ -6588,6 +6909,9 @@
       <c r="L25">
         <v>48554</v>
       </c>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
       <c r="N25">
         <v>49</v>
       </c>
@@ -6638,6 +6962,9 @@
       <c r="L26">
         <v>48354</v>
       </c>
+      <c r="M26" t="s">
+        <v>25</v>
+      </c>
       <c r="N26">
         <v>33</v>
       </c>
@@ -6688,6 +7015,9 @@
       <c r="L27">
         <v>48605</v>
       </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
       <c r="N27">
         <v>48187</v>
       </c>
@@ -6738,6 +7068,9 @@
       <c r="L28">
         <v>48690</v>
       </c>
+      <c r="M28" t="s">
+        <v>27</v>
+      </c>
       <c r="N28">
         <v>50409</v>
       </c>
@@ -6788,6 +7121,9 @@
       <c r="L29">
         <v>219</v>
       </c>
+      <c r="M29" t="s">
+        <v>28</v>
+      </c>
       <c r="N29">
         <v>357</v>
       </c>
@@ -6838,6 +7174,9 @@
       <c r="L30">
         <v>389</v>
       </c>
+      <c r="M30" t="s">
+        <v>29</v>
+      </c>
       <c r="N30">
         <v>211</v>
       </c>
@@ -6888,6 +7227,9 @@
       <c r="L31">
         <v>485</v>
       </c>
+      <c r="M31" t="s">
+        <v>30</v>
+      </c>
       <c r="N31">
         <v>319</v>
       </c>
@@ -6938,6 +7280,9 @@
       <c r="L32">
         <v>401</v>
       </c>
+      <c r="M32" t="s">
+        <v>31</v>
+      </c>
       <c r="N32">
         <v>553</v>
       </c>
@@ -6988,6 +7333,9 @@
       <c r="L33">
         <v>197</v>
       </c>
+      <c r="M33" t="s">
+        <v>32</v>
+      </c>
       <c r="N33">
         <v>259</v>
       </c>
@@ -7038,6 +7386,9 @@
       <c r="L34">
         <v>47876</v>
       </c>
+      <c r="M34" t="s">
+        <v>33</v>
+      </c>
       <c r="N34">
         <v>115</v>
       </c>
@@ -7088,6 +7439,9 @@
       <c r="L35">
         <v>50408</v>
       </c>
+      <c r="M35" t="s">
+        <v>34</v>
+      </c>
       <c r="N35">
         <v>47064</v>
       </c>
@@ -7138,6 +7492,9 @@
       <c r="L36">
         <v>47778</v>
       </c>
+      <c r="M36" t="s">
+        <v>35</v>
+      </c>
       <c r="N36">
         <v>48715</v>
       </c>
@@ -7188,6 +7545,9 @@
       <c r="L37">
         <v>47287</v>
       </c>
+      <c r="M37" t="s">
+        <v>36</v>
+      </c>
       <c r="N37">
         <v>49576</v>
       </c>
@@ -7238,6 +7598,9 @@
       <c r="L38">
         <v>213</v>
       </c>
+      <c r="M38" t="s">
+        <v>37</v>
+      </c>
       <c r="N38">
         <v>383</v>
       </c>
@@ -7288,6 +7651,9 @@
       <c r="L39">
         <v>417</v>
       </c>
+      <c r="M39" t="s">
+        <v>38</v>
+      </c>
       <c r="N39">
         <v>75</v>
       </c>
@@ -7338,6 +7704,9 @@
       <c r="L40">
         <v>375</v>
       </c>
+      <c r="M40" t="s">
+        <v>39</v>
+      </c>
       <c r="N40">
         <v>639</v>
       </c>
@@ -7388,6 +7757,9 @@
       <c r="L41">
         <v>143</v>
       </c>
+      <c r="M41" t="s">
+        <v>40</v>
+      </c>
       <c r="N41">
         <v>299</v>
       </c>
@@ -7438,6 +7810,9 @@
       <c r="L42">
         <v>243</v>
       </c>
+      <c r="M42" t="s">
+        <v>41</v>
+      </c>
       <c r="N42">
         <v>271</v>
       </c>
@@ -7488,6 +7863,9 @@
       <c r="L43">
         <v>46565</v>
       </c>
+      <c r="M43" t="s">
+        <v>42</v>
+      </c>
       <c r="N43">
         <v>75</v>
       </c>
@@ -7538,6 +7916,9 @@
       <c r="L44">
         <v>48278</v>
       </c>
+      <c r="M44" t="s">
+        <v>43</v>
+      </c>
       <c r="N44">
         <v>52529</v>
       </c>
@@ -7588,6 +7969,9 @@
       <c r="L45">
         <v>48686</v>
       </c>
+      <c r="M45" t="s">
+        <v>44</v>
+      </c>
       <c r="N45">
         <v>48608</v>
       </c>
@@ -7638,6 +8022,9 @@
       <c r="L46">
         <v>49142</v>
       </c>
+      <c r="M46" t="s">
+        <v>45</v>
+      </c>
       <c r="N46">
         <v>48480</v>
       </c>
@@ -7688,6 +8075,9 @@
       <c r="L47">
         <v>307</v>
       </c>
+      <c r="M47" t="s">
+        <v>46</v>
+      </c>
       <c r="N47">
         <v>337</v>
       </c>
@@ -7738,6 +8128,9 @@
       <c r="L48">
         <v>601</v>
       </c>
+      <c r="M48" t="s">
+        <v>47</v>
+      </c>
       <c r="N48">
         <v>217</v>
       </c>
@@ -7788,6 +8181,9 @@
       <c r="L49">
         <v>407</v>
       </c>
+      <c r="M49" t="s">
+        <v>48</v>
+      </c>
       <c r="N49">
         <v>321</v>
       </c>
@@ -7838,6 +8234,9 @@
       <c r="L50">
         <v>279</v>
       </c>
+      <c r="M50" t="s">
+        <v>49</v>
+      </c>
       <c r="N50">
         <v>345</v>
       </c>
@@ -7888,6 +8287,9 @@
       <c r="L51">
         <v>205</v>
       </c>
+      <c r="M51" t="s">
+        <v>50</v>
+      </c>
       <c r="N51">
         <v>203</v>
       </c>
@@ -7938,6 +8340,9 @@
       <c r="L52">
         <v>48805</v>
       </c>
+      <c r="M52" t="s">
+        <v>51</v>
+      </c>
       <c r="N52">
         <v>59</v>
       </c>
@@ -7988,6 +8393,9 @@
       <c r="L53">
         <v>48125</v>
       </c>
+      <c r="M53" t="s">
+        <v>52</v>
+      </c>
       <c r="N53">
         <v>48763</v>
       </c>
@@ -8038,6 +8446,9 @@
       <c r="L54">
         <v>48429</v>
       </c>
+      <c r="M54" t="s">
+        <v>53</v>
+      </c>
       <c r="N54">
         <v>47223</v>
       </c>
@@ -8088,6 +8499,9 @@
       <c r="L55">
         <v>46019</v>
       </c>
+      <c r="M55" t="s">
+        <v>54</v>
+      </c>
       <c r="N55">
         <v>48197</v>
       </c>
@@ -8138,6 +8552,9 @@
       <c r="L56">
         <v>289</v>
       </c>
+      <c r="M56" t="s">
+        <v>55</v>
+      </c>
       <c r="N56">
         <v>649</v>
       </c>
@@ -8188,6 +8605,9 @@
       <c r="L57">
         <v>409</v>
       </c>
+      <c r="M57" t="s">
+        <v>56</v>
+      </c>
       <c r="N57">
         <v>343</v>
       </c>
@@ -8238,6 +8658,9 @@
       <c r="L58">
         <v>381</v>
       </c>
+      <c r="M58" t="s">
+        <v>57</v>
+      </c>
       <c r="N58">
         <v>345</v>
       </c>
@@ -8288,6 +8711,9 @@
       <c r="L59">
         <v>237</v>
       </c>
+      <c r="M59" t="s">
+        <v>58</v>
+      </c>
       <c r="N59">
         <v>219</v>
       </c>
@@ -8338,6 +8764,9 @@
       <c r="L60">
         <v>243</v>
       </c>
+      <c r="M60" t="s">
+        <v>59</v>
+      </c>
       <c r="N60">
         <v>165</v>
       </c>
@@ -8388,6 +8817,9 @@
       <c r="L61">
         <v>48506</v>
       </c>
+      <c r="M61" t="s">
+        <v>60</v>
+      </c>
       <c r="N61">
         <v>73</v>
       </c>
@@ -8438,6 +8870,9 @@
       <c r="L62">
         <v>48643</v>
       </c>
+      <c r="M62" t="s">
+        <v>61</v>
+      </c>
       <c r="N62">
         <v>52497</v>
       </c>
@@ -8488,6 +8923,9 @@
       <c r="L63">
         <v>48350</v>
       </c>
+      <c r="M63" t="s">
+        <v>62</v>
+      </c>
       <c r="N63">
         <v>50876</v>
       </c>
@@ -8538,6 +8976,9 @@
       <c r="L64">
         <v>48240</v>
       </c>
+      <c r="M64" t="s">
+        <v>63</v>
+      </c>
       <c r="N64">
         <v>51048</v>
       </c>
@@ -8588,6 +9029,9 @@
       <c r="L65">
         <v>227</v>
       </c>
+      <c r="M65" t="s">
+        <v>64</v>
+      </c>
       <c r="N65">
         <v>43</v>
       </c>
@@ -8638,6 +9082,9 @@
       <c r="L66">
         <v>511</v>
       </c>
+      <c r="M66" t="s">
+        <v>65</v>
+      </c>
       <c r="N66">
         <v>435</v>
       </c>
@@ -8688,6 +9135,9 @@
       <c r="L67">
         <v>367</v>
       </c>
+      <c r="M67" t="s">
+        <v>66</v>
+      </c>
       <c r="N67">
         <v>345</v>
       </c>
@@ -8738,6 +9188,9 @@
       <c r="L68">
         <v>213</v>
       </c>
+      <c r="M68" t="s">
+        <v>67</v>
+      </c>
       <c r="N68">
         <v>561</v>
       </c>
@@ -8788,6 +9241,9 @@
       <c r="L69">
         <v>209</v>
       </c>
+      <c r="M69" t="s">
+        <v>68</v>
+      </c>
       <c r="N69">
         <v>259</v>
       </c>
@@ -8838,6 +9294,9 @@
       <c r="L70">
         <v>48344</v>
       </c>
+      <c r="M70" t="s">
+        <v>69</v>
+      </c>
       <c r="N70">
         <v>39</v>
       </c>
@@ -8888,6 +9347,9 @@
       <c r="L71">
         <v>48727</v>
       </c>
+      <c r="M71" t="s">
+        <v>70</v>
+      </c>
       <c r="N71">
         <v>48563</v>
       </c>
@@ -8938,6 +9400,9 @@
       <c r="L72">
         <v>48588</v>
       </c>
+      <c r="M72" t="s">
+        <v>71</v>
+      </c>
       <c r="N72">
         <v>50279</v>
       </c>
@@ -8988,6 +9453,9 @@
       <c r="L73">
         <v>47457</v>
       </c>
+      <c r="M73" t="s">
+        <v>72</v>
+      </c>
       <c r="N73">
         <v>48072</v>
       </c>
@@ -9038,6 +9506,9 @@
       <c r="L74">
         <v>223</v>
       </c>
+      <c r="M74" t="s">
+        <v>73</v>
+      </c>
       <c r="N74">
         <v>545</v>
       </c>
@@ -9088,6 +9559,9 @@
       <c r="L75">
         <v>395</v>
       </c>
+      <c r="M75" t="s">
+        <v>74</v>
+      </c>
       <c r="N75">
         <v>559</v>
       </c>
@@ -9138,6 +9612,9 @@
       <c r="L76">
         <v>533</v>
       </c>
+      <c r="M76" t="s">
+        <v>75</v>
+      </c>
       <c r="N76">
         <v>639</v>
       </c>
@@ -9188,6 +9665,9 @@
       <c r="L77">
         <v>243</v>
       </c>
+      <c r="M77" t="s">
+        <v>76</v>
+      </c>
       <c r="N77">
         <v>279</v>
       </c>
@@ -9238,6 +9718,9 @@
       <c r="L78">
         <v>211</v>
       </c>
+      <c r="M78" t="s">
+        <v>77</v>
+      </c>
       <c r="N78">
         <v>411</v>
       </c>
@@ -9288,6 +9771,9 @@
       <c r="L79">
         <v>48882</v>
       </c>
+      <c r="M79" t="s">
+        <v>78</v>
+      </c>
       <c r="N79">
         <v>89</v>
       </c>
@@ -9338,6 +9824,9 @@
       <c r="L80">
         <v>48075</v>
       </c>
+      <c r="M80" t="s">
+        <v>79</v>
+      </c>
       <c r="N80">
         <v>48234</v>
       </c>
@@ -9388,6 +9877,9 @@
       <c r="L81">
         <v>48081</v>
       </c>
+      <c r="M81" t="s">
+        <v>80</v>
+      </c>
       <c r="N81">
         <v>47458</v>
       </c>
@@ -9437,6 +9929,9 @@
       </c>
       <c r="L82">
         <v>48115</v>
+      </c>
+      <c r="M82" t="s">
+        <v>81</v>
       </c>
       <c r="N82">
         <v>48436</v>
@@ -13834,7 +14329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W55" sqref="W55"/>
     </sheetView>
   </sheetViews>
